--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1809091.914881489</v>
+        <v>1827466.604347609</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>132.8669678359351</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>97.93764088892657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.80100608808107</v>
       </c>
       <c r="U4" t="n">
-        <v>74.53436060286496</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>312.7196087087393</v>
+        <v>294.8738134566814</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>64.5756970077675</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.759219923244</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>281.1647116733689</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>33.4446411576534</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>139.3516137835387</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>172.9741397051504</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>101.1426547140138</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>140.5678108961694</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>144.4797853959758</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>228.3275535799846</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>11.02431191416908</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.920809983607</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>264.7971638227619</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>15.48989591882115</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>145.5209865847986</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2561,10 +2561,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.8155841663198</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.64843562451934</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>67.08991894886645</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>200.8606251178228</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>191.8558395677182</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>116.1580367970455</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.7644211441604659</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>163.352116301783</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>75.9814283556159</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>271.7818641996877</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>139.7861096747057</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>33.92423056203573</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4410,7 +4410,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U4" t="n">
-        <v>652.8417512742476</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>652.8417512742476</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>652.8417512742476</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>424.8522003762303</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.607341885688</v>
+        <v>1596.687254739904</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>322.5758555962227</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>322.5758555962227</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X7" t="n">
-        <v>322.5758555962227</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>322.5758555962227</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2033.346402544966</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>2033.346402544966</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
         <v>1749.341643278937</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2608.337935732904</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2389.703268704967</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="X8" t="n">
-        <v>2423.485734520778</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="Y8" t="n">
-        <v>2033.346402544966</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5356891811371</v>
+        <v>405.260972403093</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>405.260972403093</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>405.260972403093</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>257.3478788206999</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>257.3478788206999</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>257.3478788206999</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>557.9528592180977</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S10" t="n">
-        <v>557.9528592180977</v>
+        <v>405.260972403093</v>
       </c>
       <c r="T10" t="n">
-        <v>557.9528592180977</v>
+        <v>405.260972403093</v>
       </c>
       <c r="U10" t="n">
-        <v>557.9528592180977</v>
+        <v>405.260972403093</v>
       </c>
       <c r="V10" t="n">
-        <v>557.9528592180977</v>
+        <v>405.260972403093</v>
       </c>
       <c r="W10" t="n">
-        <v>268.5356891811371</v>
+        <v>405.260972403093</v>
       </c>
       <c r="X10" t="n">
-        <v>268.5356891811371</v>
+        <v>405.260972403093</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5356891811371</v>
+        <v>405.260972403093</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,19 +5051,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5106,31 +5106,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115524</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O12" t="n">
         <v>2123.441607278215</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>927.5390436562263</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>777.4224042438906</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>629.5093106614975</v>
       </c>
       <c r="F13" t="n">
         <v>527.3450129705744</v>
@@ -5194,19 +5194,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>1278.123691414373</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,61 +5264,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262065</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D16" t="n">
         <v>822.1480540508779</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5492,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5531,31 +5531,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>177.1795914149484</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>326.2492756170082</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>940.1463453738968</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1041.981979867628</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>752.8533410811858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>498.168852875299</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W19" t="n">
-        <v>208.7516828383384</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="X19" t="n">
-        <v>208.7516828383384</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7516828383384</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5777,25 +5777,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028583</v>
@@ -5835,22 +5835,22 @@
         <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636248</v>
+        <v>929.5163332765965</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820709</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039406</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3628.091576844582</v>
+        <v>573.5346686508822</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>573.5346686508822</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>423.4180292385464</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576117</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T22" t="n">
-        <v>4525.994054365623</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="U22" t="n">
-        <v>4525.994054365623</v>
+        <v>1009.867621687009</v>
       </c>
       <c r="V22" t="n">
-        <v>4525.994054365623</v>
+        <v>755.1831334811219</v>
       </c>
       <c r="W22" t="n">
-        <v>4258.522171716369</v>
+        <v>755.1831334811219</v>
       </c>
       <c r="X22" t="n">
-        <v>4030.532620818351</v>
+        <v>755.1831334811219</v>
       </c>
       <c r="Y22" t="n">
-        <v>3809.740041674821</v>
+        <v>755.1831334811219</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028462</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823774</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514069</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>553.0935746802525</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1321.461721072714</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039406</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>3941.006808105544</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>3941.006808105544</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>3790.890168693208</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>3642.977075110815</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G25" t="n">
         <v>3459.155393916675</v>
@@ -6169,28 +6169,28 @@
         <v>4860.854573014291</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576117</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576117</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U25" t="n">
-        <v>4525.994054365623</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="V25" t="n">
-        <v>4379.003158825422</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="W25" t="n">
-        <v>4089.585988788462</v>
+        <v>4571.437402977331</v>
       </c>
       <c r="X25" t="n">
-        <v>3861.596437890445</v>
+        <v>4343.447852079314</v>
       </c>
       <c r="Y25" t="n">
-        <v>3640.803858746915</v>
+        <v>4122.655272935784</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,16 +6221,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,31 +6242,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372322</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M27" t="n">
-        <v>3540.192194764783</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>3870.054822428816</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>4539.518583731475</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241921</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688035</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799327</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471154</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1301.12275119798</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1077.337335987485</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>788.2086972010437</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>533.5242089951569</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557902</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.84934122136</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6440,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,46 +6452,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>324.3840174432628</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153559</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153559</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153559</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153559</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153559</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="U31" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>1244.231782352011</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>954.81461231505</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>726.8250614170327</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>506.0324822735025</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6728,22 +6728,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3627.330715596854</v>
+        <v>3778.208216256917</v>
       </c>
       <c r="C34" t="n">
-        <v>3627.330715596854</v>
+        <v>3609.27203332901</v>
       </c>
       <c r="D34" t="n">
-        <v>3627.330715596854</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E34" t="n">
-        <v>3627.330715596854</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596854</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G34" t="n">
         <v>3459.155393916675</v>
@@ -6880,28 +6880,28 @@
         <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576117</v>
+        <v>4793.086978116447</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576117</v>
+        <v>4793.086978116447</v>
       </c>
       <c r="T34" t="n">
-        <v>4546.889949255084</v>
+        <v>4793.086978116447</v>
       </c>
       <c r="U34" t="n">
-        <v>4257.761310468642</v>
+        <v>4503.958339330004</v>
       </c>
       <c r="V34" t="n">
-        <v>4257.761310468642</v>
+        <v>4249.273851124118</v>
       </c>
       <c r="W34" t="n">
-        <v>4257.761310468642</v>
+        <v>3959.856681087157</v>
       </c>
       <c r="X34" t="n">
-        <v>4029.771759570624</v>
+        <v>3959.856681087157</v>
       </c>
       <c r="Y34" t="n">
-        <v>3808.979180427094</v>
+        <v>3959.856681087157</v>
       </c>
     </row>
     <row r="35">
@@ -6920,25 +6920,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,28 +6947,28 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>414.0663679705859</v>
+        <v>358.8683222506742</v>
       </c>
       <c r="C37" t="n">
-        <v>245.130185042679</v>
+        <v>358.8683222506742</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7102,13 +7102,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7120,25 +7120,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1305.122493216773</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1015.993854430331</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>761.309366224444</v>
       </c>
       <c r="W37" t="n">
-        <v>414.0663679705859</v>
+        <v>761.309366224444</v>
       </c>
       <c r="X37" t="n">
-        <v>414.0663679705859</v>
+        <v>761.309366224444</v>
       </c>
       <c r="Y37" t="n">
-        <v>414.0663679705859</v>
+        <v>540.5167870809139</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,19 +7163,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7193,10 +7193,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>579.0685056491545</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C40" t="n">
-        <v>410.1323227212476</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D40" t="n">
-        <v>410.1323227212476</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="E40" t="n">
-        <v>262.2192291388545</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F40" t="n">
-        <v>262.2192291388545</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7339,13 +7339,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X40" t="n">
-        <v>981.5095496229244</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y40" t="n">
-        <v>760.7169704793943</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7388,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7433,25 +7433,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085868</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2497.96918012961</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T43" t="n">
-        <v>1422.167353026977</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.167353026977</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>1167.48286482109</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="W43" t="n">
-        <v>878.0656947841297</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>650.0761438861124</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>429.2835647425823</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,46 +7631,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4382.384669597912</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C46" t="n">
-        <v>4213.448486670005</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>4063.331847257669</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>3915.418753675276</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>3768.528806177366</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>3600.353484497186</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799319</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471146</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974662</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1464.649371000286</v>
       </c>
       <c r="T46" t="n">
-        <v>4637.069157803799</v>
+        <v>1240.863955789792</v>
       </c>
       <c r="U46" t="n">
-        <v>4637.069157803799</v>
+        <v>951.73531700335</v>
       </c>
       <c r="V46" t="n">
-        <v>4382.384669597912</v>
+        <v>951.73531700335</v>
       </c>
       <c r="W46" t="n">
-        <v>4382.384669597912</v>
+        <v>662.3181469663895</v>
       </c>
       <c r="X46" t="n">
-        <v>4382.384669597912</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y46" t="n">
-        <v>4382.384669597912</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395179</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142007</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776758</v>
+        <v>288.4091825776742</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735861</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>38.86002301949998</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659905</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9483,25 +9483,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>8.406710013102781</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119848</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>18.7379736829144</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,25 +9957,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.6230805871098</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>29.47535963978268</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,13 +10592,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627467</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,25 +10905,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>199.6230805871099</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>169.2863157167186</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>28.12263706263121</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>104.8749102765755</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>44.27839330891744</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>145.6695415024079</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>58.19544475661016</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>135.4096507324001</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>21.72583451382911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,16 +24367,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>129.9311521041101</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>106.6166567390294</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>2.105225817283497</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,7 +24853,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>91.26539274301678</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24892,7 +24892,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>42.87443345492635</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>20.68693594056643</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>29.69172149067106</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>170.3649615395456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>147.8510518740519</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.1414521615946</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25801,7 +25801,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,10 +25834,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>145.5661327027734</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>14.74113413690333</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>9.127718692830456</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,22 +26071,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>163.9965794215675</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846861</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846861</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117844</v>
-      </c>
-      <c r="C2" t="n">
-        <v>533677.1504117848</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117849</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="I2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>508337.7776590218</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="L2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="M2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="K2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
     </row>
     <row r="3">
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871661</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316168.9053514381</v>
+        <v>-313640.584187996</v>
       </c>
       <c r="C6" t="n">
-        <v>273798.9738631068</v>
+        <v>276327.2950265487</v>
       </c>
       <c r="D6" t="n">
-        <v>273798.9738631069</v>
+        <v>276327.2950265488</v>
       </c>
       <c r="E6" t="n">
-        <v>-140147.9495568904</v>
+        <v>-138113.1303188935</v>
       </c>
       <c r="F6" t="n">
-        <v>385012.0869200056</v>
+        <v>387046.9061580027</v>
       </c>
       <c r="G6" t="n">
-        <v>385012.0869200058</v>
+        <v>387046.906158003</v>
       </c>
       <c r="H6" t="n">
-        <v>385012.0869200059</v>
+        <v>387046.9061580027</v>
       </c>
       <c r="I6" t="n">
-        <v>385012.086920006</v>
+        <v>387046.9061580028</v>
       </c>
       <c r="J6" t="n">
-        <v>208588.867727413</v>
+        <v>210623.68696541</v>
       </c>
       <c r="K6" t="n">
-        <v>385012.0869200057</v>
+        <v>387046.9061580029</v>
       </c>
       <c r="L6" t="n">
-        <v>385012.086920006</v>
+        <v>387046.9061580028</v>
       </c>
       <c r="M6" t="n">
-        <v>250211.0716861685</v>
+        <v>252245.8909241655</v>
       </c>
       <c r="N6" t="n">
-        <v>385012.0869200057</v>
+        <v>387046.9061580028</v>
       </c>
       <c r="O6" t="n">
-        <v>385012.0869200059</v>
+        <v>387046.9061580027</v>
       </c>
       <c r="P6" t="n">
-        <v>385012.0869200057</v>
+        <v>387046.9061580029</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>249.8668738275455</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>288.300297767127</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>171.2340993700032</v>
       </c>
       <c r="U4" t="n">
-        <v>211.7475136391128</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>57.01149196972972</v>
+        <v>74.85728722178766</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>84.03977601044485</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>197.2758855348403</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>73.5183299473141</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>140.9710716513181</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>7.313578196619147</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>39.17139924486852</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32327,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32555,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32564,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32792,7 +32792,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32801,10 +32801,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32880,7 +32880,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,10 +32892,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -32944,40 +32944,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33017,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33029,7 +33029,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33038,10 +33038,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33117,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33129,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33266,7 +33266,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33275,10 +33275,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33354,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33366,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33418,40 +33418,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,10 +33491,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33503,7 +33503,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33512,10 +33512,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33591,7 +33591,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,10 +33603,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33655,40 +33655,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33740,7 +33740,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33749,10 +33749,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33828,7 +33828,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,10 +33840,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33977,7 +33977,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33986,10 +33986,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34202,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34214,7 +34214,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34223,10 +34223,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34302,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34314,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34366,40 +34366,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,10 +34439,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34451,7 +34451,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34460,10 +34460,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34539,7 +34539,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,10 +34551,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34778,10 +34778,10 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.392610473064</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047519</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875337001</v>
+        <v>537.6668875336986</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586603</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>80.7702019744066</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>257.664414969127</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>267.9956786389386</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36522,7 +36522,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>448.880785543134</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556192</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36996,7 +36996,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718702</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37233,7 +37233,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415663</v>
@@ -37403,7 +37403,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37470,7 +37470,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>510.047457637576</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37707,7 +37707,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>451.6500179578267</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>116.1356698477053</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37944,7 +37944,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>438.0694836745882</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.214186879924</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1827466.604347609</v>
+        <v>1902996.274012414</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132.8669678359351</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>237.6596569995503</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>53.80100608808107</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>77.00738522311728</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>294.8738134566814</v>
+        <v>269.0100984637415</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>27.759219923244</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>103.8114637779369</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>33.4446411576534</v>
+        <v>148.0466746004097</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>34.0511073778744</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>172.9741397051504</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>101.1426547140138</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>101.1426547140132</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>140.5678108961694</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>60.51808258596496</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>228.3275535799846</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E22" t="n">
-        <v>11.02431191416908</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.920809983607</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>15.48989591882115</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>148.9331594064106</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>195.8155841663198</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.64843562451934</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,10 +3037,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.08991894886645</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>229.3429969918136</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.216550257373</v>
       </c>
       <c r="T37" t="n">
-        <v>191.8558395677182</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7644211441604659</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3755,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>271.7818641996877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>33.92423056203573</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>177.7059714321717</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.0401021781393</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C2" t="n">
-        <v>433.0775852377275</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,25 +4415,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>281.9325327183818</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>281.9325327183818</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.087414675782</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4600,19 @@
         <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564835</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X5" t="n">
-        <v>1596.687254739904</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y5" t="n">
-        <v>1596.687254739904</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204945</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.447464661593</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4689,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036446</v>
@@ -4750,25 +4752,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>456.3840257941342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>456.3840257941342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>456.3840257941342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>456.3840257941342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>593.8520006378978</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,10 +4804,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2608.337935732904</v>
+        <v>2492.578305992747</v>
       </c>
       <c r="T8" t="n">
-        <v>2389.703268704967</v>
+        <v>2492.578305992747</v>
       </c>
       <c r="U8" t="n">
-        <v>2135.941483343059</v>
+        <v>2492.578305992747</v>
       </c>
       <c r="V8" t="n">
-        <v>2135.941483343059</v>
+        <v>2161.515418649176</v>
       </c>
       <c r="W8" t="n">
-        <v>2135.941483343059</v>
+        <v>1808.746763379062</v>
       </c>
       <c r="X8" t="n">
-        <v>2135.941483343059</v>
+        <v>1808.746763379062</v>
       </c>
       <c r="Y8" t="n">
-        <v>2135.941483343059</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,10 +4886,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>405.260972403093</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="C10" t="n">
-        <v>405.260972403093</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="D10" t="n">
-        <v>405.260972403093</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788206999</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788206999</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788206999</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>88.33803977781335</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4969,43 +4971,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>405.260972403093</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>405.260972403093</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>405.260972403093</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V10" t="n">
-        <v>405.260972403093</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="W10" t="n">
-        <v>405.260972403093</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="X10" t="n">
-        <v>405.260972403093</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="Y10" t="n">
-        <v>405.260972403093</v>
+        <v>224.6669506791651</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,13 +5059,13 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.475226584133</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C13" t="n">
-        <v>927.5390436562263</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D13" t="n">
-        <v>777.4224042438906</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E13" t="n">
-        <v>629.5093106614975</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
         <v>527.3450129705744</v>
@@ -5194,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.123691414373</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5257,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.217138262065</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>822.1480540508779</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C16" t="n">
-        <v>822.1480540508779</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5439,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>822.1480540508779</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>822.1480540508779</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>822.1480540508779</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X16" t="n">
-        <v>822.1480540508779</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y16" t="n">
-        <v>822.1480540508779</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,37 +5527,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>177.1795914149484</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>326.2492756170082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>940.1463453738968</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653858</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918009</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.0663679705858</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C19" t="n">
-        <v>245.1301850426789</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>245.1301850426789</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="W19" t="n">
-        <v>1044.496962842373</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="X19" t="n">
-        <v>816.5074119443557</v>
+        <v>1098.722239872251</v>
       </c>
       <c r="Y19" t="n">
-        <v>595.7148328008255</v>
+        <v>877.929660728721</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5747,19 +5749,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5771,31 +5773,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>929.5163332765965</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1236.836466556558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2041.248044820709</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039406</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>573.5346686508822</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C22" t="n">
-        <v>573.5346686508822</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D22" t="n">
-        <v>423.4180292385464</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473451</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473451</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687009</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>755.1831334811219</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>755.1831334811219</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>755.1831334811219</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>755.1831334811219</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028462</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823774</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514069</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>553.0935746802525</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1321.461721072714</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1651.324348736746</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039406</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3941.006808105544</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>3941.006808105544</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>3790.890168693208</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>3642.977075110815</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596854</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014291</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014291</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014291</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V25" t="n">
-        <v>4860.854573014291</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W25" t="n">
-        <v>4571.437402977331</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X25" t="n">
-        <v>4343.447852079314</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y25" t="n">
-        <v>4122.655272935784</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6205,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>732.1698305154059</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1039.489963795367</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
         <v>1843.901542059518</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241921</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688035</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471154</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1301.12275119798</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1077.337335987485</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>788.2086972010437</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>533.5242089951569</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>244.1070389581962</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>244.1070389581962</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,31 +6481,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>324.3840174432628</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>155.4478345153559</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>155.4478345153559</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>155.4478345153559</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>155.4478345153559</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4478345153559</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557898</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557898</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557898</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352011</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>954.81461231505</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170327</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0324822735025</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6677,10 +6679,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6695,52 +6697,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3778.208216256917</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3609.27203332901</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4793.086978116447</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4793.086978116447</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4793.086978116447</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4503.958339330004</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>4249.273851124118</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>3959.856681087157</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X34" t="n">
-        <v>3959.856681087157</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>3959.856681087157</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6920,55 +6922,55 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>358.8683222506742</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>358.8683222506742</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7102,13 +7104,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="T37" t="n">
-        <v>1305.122493216773</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="U37" t="n">
-        <v>1015.993854430331</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V37" t="n">
-        <v>761.309366224444</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W37" t="n">
-        <v>761.309366224444</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>761.309366224444</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>540.5167870809139</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,19 +7186,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7287,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7339,13 +7341,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>675.007103038344</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7388,25 +7390,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
@@ -7427,31 +7429,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.6749225845919</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2292.946699347401</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2497.96918012961</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>820.5263570570734</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7667,10 +7669,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>434.3285960683721</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
         <v>265.3924131404652</v>
@@ -7795,61 +7797,61 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799319</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471146</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974662</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1464.649371000286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1240.863955789792</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>951.73531700335</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>951.73531700335</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>662.3181469663895</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>434.3285960683721</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y46" t="n">
-        <v>434.3285960683721</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776742</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9006,28 +9008,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>73.53204524669997</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.0237016735861</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>38.86002301949998</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.314990659905</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9483,25 +9485,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>8.406710013102781</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119848</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>18.7379736829144</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>199.6230805871098</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627467</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>199.6230805871099</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.12263706263121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>104.8749102765755</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>44.27839330891744</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>124.5670006750239</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>77.0677756624132</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>145.6695415024079</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23896,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>137.4027273976383</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>58.19544475661016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E22" t="n">
-        <v>135.4096507324001</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>129.9311521041101</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>72.61440165197865</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>2.105225817283497</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>91.26539274301678</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.87443345492635</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>57.18000134477737</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.70425972623022</v>
       </c>
       <c r="T37" t="n">
-        <v>29.69172149067106</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>147.8510518740519</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>14.74113413690333</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>163.9965794215675</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>48.0036839568655</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>888779.6832846861</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>888779.6832846861</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="F2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="I2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590218</v>
-      </c>
       <c r="K2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="M2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
+        <v>174490.7773218261</v>
+      </c>
+      <c r="D4" t="n">
         <v>174490.7773218262</v>
       </c>
-      <c r="D4" t="n">
-        <v>174490.7773218261</v>
-      </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26445,13 +26447,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26473,31 +26475,31 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26506,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-313640.584187996</v>
+        <v>-313640.5841879958</v>
       </c>
       <c r="C6" t="n">
-        <v>276327.2950265487</v>
+        <v>276327.2950265489</v>
       </c>
       <c r="D6" t="n">
         <v>276327.2950265488</v>
@@ -26531,37 +26533,37 @@
         <v>-138113.1303188935</v>
       </c>
       <c r="F6" t="n">
+        <v>387046.9061580026</v>
+      </c>
+      <c r="G6" t="n">
         <v>387046.9061580027</v>
       </c>
-      <c r="G6" t="n">
-        <v>387046.906158003</v>
-      </c>
       <c r="H6" t="n">
+        <v>387046.9061580028</v>
+      </c>
+      <c r="I6" t="n">
         <v>387046.9061580027</v>
       </c>
-      <c r="I6" t="n">
-        <v>387046.9061580028</v>
-      </c>
       <c r="J6" t="n">
-        <v>210623.68696541</v>
+        <v>210623.6869654097</v>
       </c>
       <c r="K6" t="n">
-        <v>387046.9061580029</v>
+        <v>387046.9061580027</v>
       </c>
       <c r="L6" t="n">
-        <v>387046.9061580028</v>
+        <v>387046.9061580024</v>
       </c>
       <c r="M6" t="n">
-        <v>252245.8909241655</v>
+        <v>252245.8909241656</v>
       </c>
       <c r="N6" t="n">
-        <v>387046.9061580028</v>
+        <v>387046.9061580027</v>
       </c>
       <c r="O6" t="n">
-        <v>387046.9061580027</v>
+        <v>387046.9061580026</v>
       </c>
       <c r="P6" t="n">
-        <v>387046.9061580029</v>
+        <v>387046.9061580026</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>249.8668738275455</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>171.2340993700032</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>141.5772681289775</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>74.85728722178766</v>
+        <v>100.7210022147275</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27822,10 +27824,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>197.2758855348403</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>121.8981916111002</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>140.9710716513181</v>
+        <v>26.36903820856185</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.14885181066259</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>39.17139924486852</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31516,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32877,10 +32879,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,40 +32946,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33019,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33029,7 +33031,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33038,10 +33040,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33053,7 +33055,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33119,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33131,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33181,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33256,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33266,7 +33268,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33275,10 +33277,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33290,7 +33292,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33588,10 +33590,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33827,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34062,10 +34064,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34214,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34223,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34238,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34366,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,10 +34441,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34451,7 +34453,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34460,10 +34462,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34475,7 +34477,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34539,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34781,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35176,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047519</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875336986</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>383.9564222971663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.0367344586603</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>80.7702019744066</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>257.664414969127</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>267.9956786389386</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>448.880785543134</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556192</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36996,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718702</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>510.047457637576</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.1356698477053</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37944,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>438.0694836745882</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.214186879924</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1902996.274012414</v>
+        <v>1895979.259120703</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>237.6596569995503</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>113.9492101328136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>77.00738522311728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>13.88103122802826</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>269.0100984637415</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>103.8114637779369</v>
+        <v>223.8275496396399</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>136.9898817279766</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>148.0466746004097</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>34.0511073778744</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>62.89058652595972</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>101.1426547140132</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>36.11757471456729</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>60.51808258596496</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>10.00886850234444</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>116.8645225501837</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>148.9331594064106</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>195.8155841663235</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>22.8798336047685</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>229.3429969918136</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.216550257373</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>199.3668334840801</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>170.5809693952292</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>177.7059714321717</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.952954307291</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>1122.952954307291</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2527.020189293348</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2308.385522265411</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2308.385522265411</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1977.322634921841</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,16 +4418,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.5125998356232</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>325.2978374347316</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>325.2978374347316</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>325.2978374347316</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>247.5125998356232</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1721.819089287443</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1050.379914381371</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.546461473041</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.546461473041</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1721.819089287443</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1721.819089287443</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>373.0594214943678</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>373.0594214943678</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>593.8520006378978</v>
+        <v>502.0405502269999</v>
       </c>
       <c r="Y7" t="n">
-        <v>373.0594214943678</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>571.4512031447746</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>213.1855045380241</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>213.1855045380241</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>206.2400037888206</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>192.3165997274115</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>192.3165997274115</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2492.578305992747</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2492.578305992747</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2492.578305992747</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.515418649176</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>1808.746763379062</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.746763379062</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.746763379062</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.6669506791651</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>224.6669506791651</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>224.6669506791651</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E10" t="n">
-        <v>224.6669506791651</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F10" t="n">
-        <v>224.6669506791651</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G10" t="n">
-        <v>224.6669506791651</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H10" t="n">
-        <v>224.6669506791651</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I10" t="n">
-        <v>88.33803977781335</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>224.6669506791651</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>224.6669506791651</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>224.6669506791651</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>224.6669506791651</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.6669506791651</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.3109288932102</v>
+        <v>272.2775278140552</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3747459653033</v>
+        <v>272.2775278140552</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>272.2775278140552</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>272.2775278140552</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>272.2775278140552</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X13" t="n">
-        <v>1396.75197286698</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.95939372345</v>
+        <v>453.925992644295</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9054447954967</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C16" t="n">
-        <v>130.9054447954967</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>130.9054447954967</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>130.9054447954967</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>130.9054447954967</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>130.9054447954967</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X16" t="n">
-        <v>130.9054447954967</v>
+        <v>429.2835647425823</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.9054447954967</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="17">
@@ -5497,31 +5497,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.2811958984813</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1326.711790770268</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1326.711790770268</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.711790770268</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1326.711790770268</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W19" t="n">
-        <v>1326.711790770268</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="X19" t="n">
-        <v>1098.722239872251</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y19" t="n">
-        <v>877.929660728721</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5746,31 +5746,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.3840174432676</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>155.4478345153607</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5952,10 +5952,10 @@
         <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735073</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,28 +5974,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6074,16 +6074,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1037.48362228133</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1037.48362228133</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V25" t="n">
-        <v>782.7991340754431</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W25" t="n">
-        <v>493.3819640384826</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>265.3924131404652</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,40 +6205,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,7 +6250,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6311,16 +6311,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>223.1552313137088</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>435.3933036734953</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>435.3933036734953</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>288.5033561755849</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>120.3280344954055</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W34" t="n">
-        <v>499.6581354340557</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>585.5099430858311</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,34 +6922,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1271.460813324402</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1271.460813324402</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>982.3321745379599</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>727.647686332073</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7359,7 +7359,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
         <v>1158.436939387592</v>
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7496,19 +7496,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1297.535630674993</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>1008.118460638033</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7836,19 +7836,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X46" t="n">
-        <v>486.1849922839954</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y46" t="n">
         <v>265.3924131404652</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>73.53204524669997</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>85.3000633212781</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>116.9087390531963</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>103.6029819374179</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>124.5670006750239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>77.0677756624132</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>189.5920806744699</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>137.4027273976383</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>276.5141298342465</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>72.61440165197865</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>22.76906918577129</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>126.0339947627676</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>57.18000134477737</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.70425972623022</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>52.77080983974787</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>50.96659166316005</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>48.0036839568655</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117845</v>
@@ -26322,16 +26322,16 @@
         <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="F2" t="n">
         <v>508337.7776590215</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="G2" t="n">
-        <v>508337.7776590217</v>
-      </c>
       <c r="H2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
@@ -26340,13 +26340,13 @@
         <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
+        <v>508337.7776590214</v>
+      </c>
+      <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>508337.7776590214</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590217</v>
       </c>
       <c r="N2" t="n">
         <v>508337.7776590216</v>
@@ -26355,7 +26355,7 @@
         <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26435,7 +26435,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26487,25 +26487,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-313640.5841879958</v>
+        <v>-313640.5841879959</v>
       </c>
       <c r="C6" t="n">
         <v>276327.2950265489</v>
       </c>
       <c r="D6" t="n">
-        <v>276327.2950265488</v>
+        <v>276327.2950265489</v>
       </c>
       <c r="E6" t="n">
-        <v>-138113.1303188935</v>
+        <v>-139087.7215786151</v>
       </c>
       <c r="F6" t="n">
-        <v>387046.9061580026</v>
+        <v>386072.3148982809</v>
       </c>
       <c r="G6" t="n">
-        <v>387046.9061580027</v>
+        <v>386072.314898281</v>
       </c>
       <c r="H6" t="n">
-        <v>387046.9061580028</v>
+        <v>386072.3148982809</v>
       </c>
       <c r="I6" t="n">
-        <v>387046.9061580027</v>
+        <v>386072.3148982809</v>
       </c>
       <c r="J6" t="n">
-        <v>210623.6869654097</v>
+        <v>209649.0957056879</v>
       </c>
       <c r="K6" t="n">
-        <v>387046.9061580027</v>
+        <v>386072.3148982808</v>
       </c>
       <c r="L6" t="n">
-        <v>387046.9061580024</v>
+        <v>386072.314898281</v>
       </c>
       <c r="M6" t="n">
-        <v>252245.8909241656</v>
+        <v>251271.2996644437</v>
       </c>
       <c r="N6" t="n">
-        <v>387046.9061580027</v>
+        <v>386072.314898281</v>
       </c>
       <c r="O6" t="n">
-        <v>387046.9061580026</v>
+        <v>386072.314898281</v>
       </c>
       <c r="P6" t="n">
-        <v>387046.9061580026</v>
+        <v>386072.3148982809</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26755,25 +26755,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>144.2707130727115</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>60.46650267615792</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.5772681289775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>368.0493388442335</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>100.7210022147275</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>121.8981916111002</v>
+        <v>1.882105749397226</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14.94143451688464</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>26.36903820856185</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>11.14885181066259</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>383.9564222971663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R23" t="n">
         <v>59.8253897034981</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>127.2102422761848</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37873,13 +37873,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>399.2724412943044</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686864</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1895979.259120703</v>
+        <v>1900918.521969735</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>201.3863510997757</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>113.9492101328136</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>13.88103122802826</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>176.4410337405338</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>223.8275496396399</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>60.2695197076504</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9898817279766</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.54110646053103</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>62.89058652595972</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>43.27874132425469</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>36.11757471456729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>10.00886850234444</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>75.09631833451675</v>
       </c>
     </row>
     <row r="20">
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>95.31089658769019</v>
       </c>
       <c r="X22" t="n">
-        <v>116.8645225501837</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>271.7818641996879</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404423</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>136.9328443314045</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>195.8155841663235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>22.8798336047685</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>103.6823614795158</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>199.3668334840801</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
-        <v>170.5809693952292</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.8148076117928</v>
+        <v>786.7375321813302</v>
       </c>
       <c r="C2" t="n">
-        <v>478.8522906713811</v>
+        <v>417.7750152409184</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>417.7750152409184</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>417.7750152409184</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>410.829514491715</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2527.020189293348</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2308.385522265411</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.385522265411</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.322634921841</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.553979651726</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.553979651726</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.414647675915</v>
+        <v>1173.337372245452</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1408.645612988121</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>1408.645612988121</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D5" t="n">
-        <v>1050.379914381371</v>
+        <v>796.618129019462</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>796.618129019462</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>385.6322242298544</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1408.645612988121</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>502.0405502269999</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.4137200851862</v>
+        <v>2056.787465592192</v>
       </c>
       <c r="C8" t="n">
-        <v>571.4512031447746</v>
+        <v>1687.82494865178</v>
       </c>
       <c r="D8" t="n">
-        <v>213.1855045380241</v>
+        <v>1329.55925004503</v>
       </c>
       <c r="E8" t="n">
-        <v>213.1855045380241</v>
+        <v>943.7709974467855</v>
       </c>
       <c r="F8" t="n">
-        <v>206.2400037888206</v>
+        <v>532.785092657178</v>
       </c>
       <c r="G8" t="n">
-        <v>192.3165997274115</v>
+        <v>114.8212845553649</v>
       </c>
       <c r="H8" t="n">
-        <v>192.3165997274115</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4843,13 +4843,13 @@
         <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.15289212512</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y8" t="n">
-        <v>1327.013560149308</v>
+        <v>2443.387305656314</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477204</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653273</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7923845674169</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>84.79258430574933</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>84.79258430574933</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>84.79258430574933</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5041,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>272.2775278140552</v>
+        <v>607.1380464627241</v>
       </c>
       <c r="C13" t="n">
-        <v>272.2775278140552</v>
+        <v>607.1380464627241</v>
       </c>
       <c r="D13" t="n">
-        <v>272.2775278140552</v>
+        <v>457.0214070503883</v>
       </c>
       <c r="E13" t="n">
-        <v>272.2775278140552</v>
+        <v>309.1083134679952</v>
       </c>
       <c r="F13" t="n">
-        <v>272.2775278140552</v>
+        <v>309.1083134679952</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>140.9329917878158</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>674.7185717878251</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X13" t="n">
-        <v>674.7185717878251</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y13" t="n">
-        <v>453.925992644295</v>
+        <v>788.7865112929638</v>
       </c>
     </row>
     <row r="14">
@@ -5260,31 +5260,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>429.2835647425823</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>429.2835647425823</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>1288.886292289268</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X19" t="n">
-        <v>1060.896741391251</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y19" t="n">
-        <v>1060.896741391251</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5746,7 +5746,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5837,13 +5837,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5943,19 +5943,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X22" t="n">
-        <v>836.769640042142</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y22" t="n">
-        <v>615.9770608986119</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="23">
@@ -5989,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6025,7 +6025,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6180,16 +6180,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>800.6837097077201</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,25 +6214,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6250,7 +6250,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>905.9957678924117</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>685.2031887488815</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>223.1552313137088</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>634.0455001582214</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,28 +6679,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>585.5099430858311</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>585.5099430858311</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>435.3933036734953</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>435.3933036734953</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>288.5033561755849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>120.3280344954055</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>874.9271131227918</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>874.9271131227918</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>585.5099430858311</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>585.5099430858311</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>585.5099430858311</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6925,19 +6925,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="38">
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1297.535630674993</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1008.118460638033</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>780.1289097400152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>559.336330596485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>1326.612261067772</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1037.48362228133</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>782.7991340754431</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>493.3819640384826</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>73.53204524669994</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504737</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,16 +9485,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>85.3000633212781</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>103.6029819374179</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>105.6350870432814</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>189.5920806744699</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.5141298342465</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>143.488335017578</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24183,16 +24183,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>191.2121017489008</v>
       </c>
       <c r="X22" t="n">
-        <v>108.8451328388535</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>14.45548819888944</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338574</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>88.7768110576327</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>22.76906918577129</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>126.0339947627676</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>44.93311153869652</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>52.77080983974787</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
-        <v>50.96659166316005</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="13">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590216</v>
@@ -26340,22 +26340,22 @@
         <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="N2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="O2" t="n">
         <v>508337.7776590214</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="P2" t="n">
-        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26435,7 +26435,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26447,19 +26447,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26490,28 +26490,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>276327.2950265489</v>
       </c>
       <c r="D6" t="n">
-        <v>276327.2950265489</v>
+        <v>276327.2950265488</v>
       </c>
       <c r="E6" t="n">
-        <v>-139087.7215786151</v>
+        <v>-138210.5894448657</v>
       </c>
       <c r="F6" t="n">
-        <v>386072.3148982809</v>
+        <v>386949.4470320305</v>
       </c>
       <c r="G6" t="n">
-        <v>386072.314898281</v>
+        <v>386949.4470320303</v>
       </c>
       <c r="H6" t="n">
-        <v>386072.3148982809</v>
+        <v>386949.4470320305</v>
       </c>
       <c r="I6" t="n">
-        <v>386072.3148982809</v>
+        <v>386949.4470320304</v>
       </c>
       <c r="J6" t="n">
-        <v>209649.0957056879</v>
+        <v>210526.2278394375</v>
       </c>
       <c r="K6" t="n">
-        <v>386072.3148982808</v>
+        <v>386949.4470320304</v>
       </c>
       <c r="L6" t="n">
-        <v>386072.314898281</v>
+        <v>386949.4470320305</v>
       </c>
       <c r="M6" t="n">
-        <v>251271.2996644437</v>
+        <v>252148.4317981935</v>
       </c>
       <c r="N6" t="n">
-        <v>386072.314898281</v>
+        <v>386949.4470320305</v>
       </c>
       <c r="O6" t="n">
-        <v>386072.314898281</v>
+        <v>386949.4470320303</v>
       </c>
       <c r="P6" t="n">
-        <v>386072.3148982809</v>
+        <v>386949.4470320305</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26758,13 +26758,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>212.3978189210193</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.46650267615792</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>368.0493388442335</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>237.3431362802612</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.882105749397255</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>1.882105749397226</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>263.6532530567068</v>
       </c>
       <c r="I8" t="n">
-        <v>14.94143451688464</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28034,28 +28034,28 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>14.65885272800598</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819984</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315247</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36378,10 +36378,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>127.2102422761848</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
